--- a/Team-Data/2013-14/1-19-2013-14.xlsx
+++ b/Team-Data/2013-14/1-19-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,25 +811,25 @@
         <v>0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK2" t="n">
         <v>8</v>
@@ -774,13 +841,13 @@
         <v>4</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -807,19 +874,19 @@
         <v>22</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -848,49 +915,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.341</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0.439</v>
+        <v>0.441</v>
       </c>
       <c r="L3" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M3" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O3" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
         <v>21</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S3" t="n">
         <v>31.5</v>
@@ -899,10 +966,10 @@
         <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W3" t="n">
         <v>6.9</v>
@@ -914,25 +981,25 @@
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA3" t="n">
         <v>18.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC3" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
         <v>26</v>
@@ -941,13 +1008,13 @@
         <v>28</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL3" t="n">
         <v>25</v>
@@ -959,13 +1026,13 @@
         <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>14</v>
@@ -974,19 +1041,19 @@
         <v>19</v>
       </c>
       <c r="AT3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU3" t="n">
         <v>28</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY3" t="n">
         <v>11</v>
@@ -995,7 +1062,7 @@
         <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1144,10 +1211,10 @@
         <v>6</v>
       </c>
       <c r="AP4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>23</v>
@@ -1165,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="AW4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>28</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1363,7 @@
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
@@ -1341,7 +1408,7 @@
         <v>23</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>0.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
         <v>15</v>
@@ -1511,19 +1578,19 @@
         <v>12</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
         <v>6</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>-5.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF7" t="n">
         <v>22</v>
       </c>
-      <c r="AF7" t="n">
-        <v>21</v>
-      </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
@@ -1678,13 +1745,13 @@
         <v>28</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>23</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1708,10 +1775,10 @@
         <v>29</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX7" t="n">
         <v>25</v>
@@ -1729,7 +1796,7 @@
         <v>22</v>
       </c>
       <c r="BC7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1912,7 @@
         <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
         <v>27</v>
@@ -1863,13 +1930,13 @@
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.513</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
@@ -1967,16 +2034,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q9" t="n">
         <v>0.73</v>
@@ -1988,19 +2055,19 @@
         <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="U9" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
@@ -2015,19 +2082,19 @@
         <v>103.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2036,19 +2103,19 @@
         <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK9" t="n">
         <v>14</v>
       </c>
       <c r="AL9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM9" t="n">
         <v>10</v>
       </c>
-      <c r="AM9" t="n">
-        <v>9</v>
-      </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,25 +2133,25 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV9" t="n">
         <v>13</v>
       </c>
-      <c r="AV9" t="n">
-        <v>12</v>
-      </c>
       <c r="AW9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2254,7 +2321,7 @@
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>5</v>
@@ -2266,7 +2333,7 @@
         <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2454,7 +2521,7 @@
         <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -2609,7 +2676,7 @@
         <v>18</v>
       </c>
       <c r="AS12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>8</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2761,7 +2828,7 @@
         <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>27</v>
@@ -2776,7 +2843,7 @@
         <v>21</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
         <v>13</v>
@@ -2800,16 +2867,16 @@
         <v>17</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
         <v>9</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -2952,7 +3019,7 @@
         <v>7</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>7</v>
@@ -2973,10 +3040,10 @@
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
@@ -2988,7 +3055,7 @@
         <v>8</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.39</v>
+        <v>0.375</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
@@ -3050,76 +3117,76 @@
         <v>36.9</v>
       </c>
       <c r="J15" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L15" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0.369</v>
+        <v>0.365</v>
       </c>
       <c r="O15" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.757</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>33</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="U15" t="n">
         <v>22.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="W15" t="n">
         <v>6.3</v>
       </c>
       <c r="X15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y15" t="n">
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA15" t="n">
         <v>19.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.6</v>
+        <v>100.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.2</v>
+        <v>-5.5</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3131,7 +3198,7 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3140,31 +3207,31 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
         <v>14</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>29</v>
@@ -3176,16 +3243,16 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB15" t="n">
         <v>16</v>
       </c>
       <c r="BC15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -3292,28 +3359,28 @@
         <v>-0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,13 +3392,13 @@
         <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>8</v>
@@ -3340,7 +3407,7 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3361,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="BA16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="n">
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>0.175</v>
+        <v>0.179</v>
       </c>
       <c r="H18" t="n">
         <v>48.9</v>
@@ -3596,28 +3663,28 @@
         <v>34.7</v>
       </c>
       <c r="J18" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.42</v>
+        <v>0.421</v>
       </c>
       <c r="L18" t="n">
         <v>7.2</v>
       </c>
       <c r="M18" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O18" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P18" t="n">
         <v>19.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.758</v>
+        <v>0.762</v>
       </c>
       <c r="R18" t="n">
         <v>11.3</v>
@@ -3626,37 +3693,37 @@
         <v>30.1</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U18" t="n">
         <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="W18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>5.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>91.40000000000001</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.199999999999999</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,7 +3735,7 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
@@ -3680,7 +3747,7 @@
         <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>16</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>13</v>
@@ -3704,16 +3771,16 @@
         <v>28</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>18</v>
       </c>
       <c r="AV18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW18" t="n">
         <v>25</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>24</v>
       </c>
       <c r="AX18" t="n">
         <v>7</v>
@@ -3731,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3850,7 +3917,7 @@
         <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
         <v>8</v>
@@ -3904,7 +3971,7 @@
         <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-2</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>20</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
@@ -4059,7 +4126,7 @@
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>4</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
         <v>22</v>
       </c>
-      <c r="AF21" t="n">
-        <v>21</v>
-      </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
         <v>12</v>
@@ -4238,10 +4305,10 @@
         <v>30</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>20</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="n">
         <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>0.756</v>
+        <v>0.75</v>
       </c>
       <c r="H22" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I22" t="n">
         <v>38.6</v>
       </c>
       <c r="J22" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.466</v>
@@ -4336,22 +4403,22 @@
         <v>20.4</v>
       </c>
       <c r="N22" t="n">
-        <v>0.343</v>
+        <v>0.341</v>
       </c>
       <c r="O22" t="n">
         <v>21.1</v>
       </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="R22" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="T22" t="n">
         <v>46.8</v>
@@ -4363,13 +4430,13 @@
         <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z22" t="n">
         <v>22.5</v>
@@ -4381,13 +4448,13 @@
         <v>105.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD22" t="n">
         <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4396,13 +4463,13 @@
         <v>4</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
         <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4414,7 +4481,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>4</v>
@@ -4438,7 +4505,7 @@
         <v>16</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW22" t="n">
         <v>11</v>
@@ -4450,7 +4517,7 @@
         <v>7</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -4488,55 +4555,55 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.268</v>
+        <v>0.25</v>
       </c>
       <c r="H23" t="n">
         <v>48.9</v>
       </c>
       <c r="I23" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L23" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M23" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="O23" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="P23" t="n">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R23" t="n">
         <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T23" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4551,19 +4618,19 @@
         <v>4.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD23" t="n">
         <v>8</v>
@@ -4578,13 +4645,13 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4596,31 +4663,31 @@
         <v>15</v>
       </c>
       <c r="AN23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP23" t="n">
         <v>25</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>19</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
@@ -4635,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4772,7 +4839,7 @@
         <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM24" t="n">
         <v>13</v>
@@ -4799,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4823,7 +4890,7 @@
         <v>14</v>
       </c>
       <c r="BC24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -4852,70 +4919,70 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="n">
         <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.575</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J25" t="n">
-        <v>85.09999999999999</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O25" t="n">
         <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R25" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S25" t="n">
         <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U25" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V25" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W25" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X25" t="n">
         <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>21.4</v>
@@ -4924,13 +4991,13 @@
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>103.9</v>
+        <v>103.6</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4939,7 +5006,7 @@
         <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>21</v>
@@ -4948,10 +5015,10 @@
         <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4960,19 +5027,19 @@
         <v>1</v>
       </c>
       <c r="AN25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP25" t="n">
         <v>13</v>
       </c>
-      <c r="AO25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>14</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>30</v>
       </c>
       <c r="AV25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AW25" t="n">
         <v>7</v>
@@ -5002,10 +5069,10 @@
         <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>6.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
       </c>
       <c r="AG26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
@@ -5157,7 +5224,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.359</v>
+        <v>0.368</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J27" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L27" t="n">
         <v>6.8</v>
@@ -5246,10 +5313,10 @@
         <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O27" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P27" t="n">
         <v>25.4</v>
@@ -5258,7 +5325,7 @@
         <v>0.774</v>
       </c>
       <c r="R27" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S27" t="n">
         <v>31.8</v>
@@ -5267,13 +5334,13 @@
         <v>43.5</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W27" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X27" t="n">
         <v>3.9</v>
@@ -5285,22 +5352,22 @@
         <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.4</v>
+        <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5309,13 +5376,13 @@
         <v>14</v>
       </c>
       <c r="AI27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL27" t="n">
         <v>23</v>
@@ -5333,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR27" t="n">
         <v>12</v>
@@ -5345,10 +5412,10 @@
         <v>13</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5360,10 +5427,10 @@
         <v>25</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.78</v>
+        <v>0.775</v>
       </c>
       <c r="H28" t="n">
         <v>48.1</v>
       </c>
       <c r="I28" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K28" t="n">
-        <v>0.493</v>
+        <v>0.492</v>
       </c>
       <c r="L28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.403</v>
+        <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="P28" t="n">
         <v>19.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.774</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34.2</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.2</v>
+        <v>42.9</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5458,10 +5525,10 @@
         <v>7.6</v>
       </c>
       <c r="X28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>17.5</v>
@@ -5470,16 +5537,16 @@
         <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="AD28" t="n">
         <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>2</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>19</v>
@@ -5512,19 +5579,19 @@
         <v>29</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5536,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA28" t="n">
         <v>27</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -5580,97 +5647,97 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="n">
         <v>20</v>
       </c>
       <c r="F29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G29" t="n">
-        <v>0.513</v>
+        <v>0.526</v>
       </c>
       <c r="H29" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L29" t="n">
         <v>8.1</v>
       </c>
       <c r="M29" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.361</v>
+        <v>0.363</v>
       </c>
       <c r="O29" t="n">
-        <v>19</v>
+        <v>19.3</v>
       </c>
       <c r="P29" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R29" t="n">
         <v>11.9</v>
       </c>
       <c r="S29" t="n">
-        <v>31.2</v>
+        <v>31.1</v>
       </c>
       <c r="T29" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U29" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="V29" t="n">
         <v>14.4</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X29" t="n">
         <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>22.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
         <v>11</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>11</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI29" t="n">
         <v>26</v>
@@ -5682,13 +5749,13 @@
         <v>24</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>12</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO29" t="n">
         <v>7</v>
@@ -5697,25 +5764,25 @@
         <v>10</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>19</v>
@@ -5727,13 +5794,13 @@
         <v>28</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>25</v>
       </c>
       <c r="AF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG30" t="n">
         <v>27</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>26</v>
       </c>
       <c r="AH30" t="n">
         <v>24</v>
@@ -5861,7 +5928,7 @@
         <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5873,13 +5940,13 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>16</v>
@@ -5888,7 +5955,7 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>15</v>
@@ -6037,13 +6104,13 @@
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ31" t="n">
         <v>13</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6058,7 +6125,7 @@
         <v>27</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-19-2013-14</t>
+          <t>2014-01-19</t>
         </is>
       </c>
     </row>
